--- a/Impact_Missing_on_Aggregate_Insights/raw_results/db_missing_zipf_measure9.xlsx
+++ b/Impact_Missing_on_Aggregate_Insights/raw_results/db_missing_zipf_measure9.xlsx
@@ -34,28 +34,10 @@
     <t>readmitted</t>
   </si>
   <si>
-    <t>gender</t>
-  </si>
-  <si>
-    <t>admission_type_id</t>
-  </si>
-  <si>
     <t>max_glu_serum</t>
   </si>
   <si>
     <t>race</t>
-  </si>
-  <si>
-    <t>admission_source_id</t>
-  </si>
-  <si>
-    <t>diag_1</t>
-  </si>
-  <si>
-    <t>discharge_disposition_id</t>
-  </si>
-  <si>
-    <t>insulin</t>
   </si>
   <si>
     <t>age</t>
@@ -64,16 +46,34 @@
     <t>a1cresult</t>
   </si>
   <si>
-    <t>change</t>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>diag_1</t>
+  </si>
+  <si>
+    <t>admission_source_id</t>
   </si>
   <si>
     <t>diabetesmed</t>
   </si>
   <si>
-    <t>number_inpatient</t>
+    <t>insulin</t>
+  </si>
+  <si>
+    <t>discharge_disposition_id</t>
+  </si>
+  <si>
+    <t>change</t>
+  </si>
+  <si>
+    <t>admission_type_id</t>
   </si>
   <si>
     <t>number_emergency</t>
+  </si>
+  <si>
+    <t>number_inpatient</t>
   </si>
   <si>
     <t>number_outpatient</t>
@@ -94,10 +94,10 @@
     <t>num_procedures</t>
   </si>
   <si>
-    <t>avg</t>
+    <t>max</t>
   </si>
   <si>
-    <t>max</t>
+    <t>avg</t>
   </si>
   <si>
     <t>sum</t>
@@ -498,7 +498,7 @@
         <v>26</v>
       </c>
       <c r="E2">
-        <v>1.298047244170487</v>
+        <v>1.333333333333333</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -509,13 +509,13 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3">
-        <v>1.291855966423871</v>
+        <v>1.306369557287916</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -526,13 +526,13 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4">
-        <v>1.237968731481622</v>
+        <v>1.297920040700449</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -543,13 +543,13 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
         <v>27</v>
       </c>
       <c r="E5">
-        <v>1.195228609334394</v>
+        <v>1.234557624548988</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -560,13 +560,13 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
         <v>28</v>
       </c>
       <c r="E6">
-        <v>1.177172493757064</v>
+        <v>1.190221249103054</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -577,13 +577,13 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
         <v>26</v>
       </c>
       <c r="E7">
-        <v>1.170165638014464</v>
+        <v>1.171558372258012</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -594,13 +594,13 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8">
-        <v>1.164810329690688</v>
+        <v>1.169835269758599</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -611,13 +611,13 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E9">
-        <v>1.164570304799259</v>
+        <v>1.166394836781883</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -628,13 +628,13 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E10">
-        <v>1.164012024022406</v>
+        <v>1.164978756676489</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -645,13 +645,13 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>1.161862956316799</v>
+        <v>1.164665609783807</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -668,7 +668,7 @@
         <v>27</v>
       </c>
       <c r="E12">
-        <v>1.161394510621746</v>
+        <v>1.161703955564653</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -679,13 +679,13 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E13">
-        <v>1.154700538379251</v>
+        <v>1.161394510621746</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -699,7 +699,7 @@
         <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>1.154700538379251</v>
@@ -713,10 +713,10 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E15">
         <v>1.154700538379251</v>
@@ -730,13 +730,13 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E16">
-        <v>1.145881092548817</v>
+        <v>1.154700538379251</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -747,13 +747,13 @@
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E17">
-        <v>1.14070365094406</v>
+        <v>1.145881092548817</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -767,10 +767,10 @@
         <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E18">
-        <v>1.133499739871187</v>
+        <v>1.132609975022409</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -781,13 +781,13 @@
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E19">
-        <v>1.098339294730552</v>
+        <v>1.097517860695421</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -804,7 +804,7 @@
         <v>28</v>
       </c>
       <c r="E20">
-        <v>1.089804346988049</v>
+        <v>1.093719032721435</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -821,7 +821,7 @@
         <v>28</v>
       </c>
       <c r="E21">
-        <v>0.9832096856956942</v>
+        <v>0.9829219969573491</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -838,7 +838,7 @@
         <v>28</v>
       </c>
       <c r="E22">
-        <v>0.9784326728709287</v>
+        <v>0.97786118850823</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -855,7 +855,7 @@
         <v>28</v>
       </c>
       <c r="E23">
-        <v>0.9780954651087164</v>
+        <v>0.9777036286993289</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -872,7 +872,7 @@
         <v>28</v>
       </c>
       <c r="E24">
-        <v>0.9755350726914764</v>
+        <v>0.9741227374099173</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -883,13 +883,13 @@
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D25" t="s">
         <v>29</v>
       </c>
       <c r="E25">
-        <v>0.9670774400977243</v>
+        <v>0.9677651818892729</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -900,13 +900,13 @@
         <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D26" t="s">
         <v>29</v>
       </c>
       <c r="E26">
-        <v>0.9663974852009978</v>
+        <v>0.9665763841661347</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -923,7 +923,7 @@
         <v>29</v>
       </c>
       <c r="E27">
-        <v>0.9662098534187806</v>
+        <v>0.9663154007792339</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -940,7 +940,7 @@
         <v>29</v>
       </c>
       <c r="E28">
-        <v>0.9657609791325239</v>
+        <v>0.9656314044712854</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -951,13 +951,13 @@
         <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D29" t="s">
         <v>29</v>
       </c>
       <c r="E29">
-        <v>0.9654038553532012</v>
+        <v>0.9654417542242333</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -968,13 +968,13 @@
         <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D30" t="s">
         <v>29</v>
       </c>
       <c r="E30">
-        <v>0.9653361125387029</v>
+        <v>0.9651654858663336</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -985,13 +985,13 @@
         <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D31" t="s">
         <v>29</v>
       </c>
       <c r="E31">
-        <v>0.9650719577320447</v>
+        <v>0.9646942936519084</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1002,13 +1002,13 @@
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D32" t="s">
         <v>29</v>
       </c>
       <c r="E32">
-        <v>0.9637919236581498</v>
+        <v>0.9644376910051703</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1025,7 +1025,7 @@
         <v>28</v>
       </c>
       <c r="E33">
-        <v>0.9353771229386528</v>
+        <v>0.9340460003386557</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1036,13 +1036,13 @@
         <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E34">
-        <v>0.7676103107863972</v>
+        <v>0.8446598678744367</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1053,13 +1053,13 @@
         <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E35">
-        <v>0.7380124046167461</v>
+        <v>0.7798400286080701</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1070,13 +1070,13 @@
         <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E36">
-        <v>0.7076861395641062</v>
+        <v>0.7797130459594673</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1087,13 +1087,13 @@
         <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D37" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E37">
-        <v>0.7071067811865476</v>
+        <v>0.7431650802497969</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1101,16 +1101,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D38" t="s">
         <v>27</v>
       </c>
       <c r="E38">
-        <v>0.6988565578146122</v>
+        <v>0.7333977137810457</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1118,16 +1118,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E39">
-        <v>0.6487001560890869</v>
+        <v>0.6992058987801011</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1138,13 +1138,13 @@
         <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D40" t="s">
         <v>26</v>
       </c>
       <c r="E40">
-        <v>0.6448519883928632</v>
+        <v>0.6957142120441285</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1152,16 +1152,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D41" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E41">
-        <v>0.6133910764370544</v>
+        <v>0.6940742974889522</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1169,16 +1169,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C42" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D42" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E42">
-        <v>0.6021732413621621</v>
+        <v>0.6726622256054526</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1186,16 +1186,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C43" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D43" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E43">
-        <v>0.6011039567752227</v>
+        <v>0.6702467972551374</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1203,16 +1203,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C44" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D44" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E44">
-        <v>0.5896618941607872</v>
+        <v>0.6526300069150406</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1220,16 +1220,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C45" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D45" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E45">
-        <v>0.5756888261214324</v>
+        <v>0.6510065466717857</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1237,16 +1237,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C46" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D46" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E46">
-        <v>0.5302568995619343</v>
+        <v>0.6232809164476865</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1254,16 +1254,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
         <v>20</v>
       </c>
       <c r="D47" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E47">
-        <v>0.5231483637805969</v>
+        <v>0.6154574548966637</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1274,13 +1274,13 @@
         <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D48" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E48">
-        <v>0.5199917177442411</v>
+        <v>0.5678006628363096</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1288,16 +1288,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C49" t="s">
         <v>18</v>
       </c>
       <c r="D49" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E49">
-        <v>0.5191505116352279</v>
+        <v>0.5632157889071681</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1305,16 +1305,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
         <v>19</v>
       </c>
       <c r="D50" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E50">
-        <v>0.5088990398213463</v>
+        <v>0.5532662082127444</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1325,13 +1325,13 @@
         <v>14</v>
       </c>
       <c r="C51" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D51" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E51">
-        <v>0.4931003630277531</v>
+        <v>0.5311784423660364</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1339,7 +1339,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C52" t="s">
         <v>18</v>
@@ -1348,7 +1348,7 @@
         <v>27</v>
       </c>
       <c r="E52">
-        <v>0.4884500086981308</v>
+        <v>0.5245242602532997</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1356,16 +1356,16 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C53" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D53" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E53">
-        <v>0.4851154257705921</v>
+        <v>0.5128728387747147</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1373,16 +1373,16 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C54" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D54" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E54">
-        <v>0.4771187236136979</v>
+        <v>0.5085234042009479</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1390,16 +1390,16 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C55" t="s">
         <v>18</v>
       </c>
       <c r="D55" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E55">
-        <v>0.4700557211144025</v>
+        <v>0.4997652030863717</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1407,16 +1407,16 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D56" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E56">
-        <v>0.4554720839712446</v>
+        <v>0.4997652030863717</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1424,16 +1424,16 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C57" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D57" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E57">
-        <v>0.4490036504026067</v>
+        <v>0.4958158260214506</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1441,16 +1441,16 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C58" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D58" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E58">
-        <v>0.4490036504026067</v>
+        <v>0.4958158260214506</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1458,16 +1458,16 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C59" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D59" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E59">
-        <v>0.4432445109256249</v>
+        <v>0.4868397960448458</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1475,16 +1475,16 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
         <v>19</v>
       </c>
       <c r="D60" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E60">
-        <v>0.4421024151195574</v>
+        <v>0.4654547090891912</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1492,16 +1492,16 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C61" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D61" t="s">
         <v>26</v>
       </c>
       <c r="E61">
-        <v>0.4271773932952384</v>
+        <v>0.4546060565661952</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1509,16 +1509,16 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C62" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D62" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E62">
-        <v>0.4159694975288087</v>
+        <v>0.4480276985927844</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1526,16 +1526,16 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C63" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D63" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E63">
-        <v>0.4128074395825347</v>
+        <v>0.4392976851069795</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1543,16 +1543,16 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C64" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D64" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E64">
-        <v>0.3917247450213849</v>
+        <v>0.4349282257756498</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1563,13 +1563,13 @@
         <v>11</v>
       </c>
       <c r="C65" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D65" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E65">
-        <v>0.3857942577363297</v>
+        <v>0.4349282257756498</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1577,16 +1577,16 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C66" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D66" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E66">
-        <v>0.3822016745621444</v>
+        <v>0.4349282257756498</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1594,16 +1594,16 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C67" t="s">
         <v>20</v>
       </c>
       <c r="D67" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E67">
-        <v>0.3813850356982369</v>
+        <v>0.4164776884529214</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1611,16 +1611,16 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
         <v>19</v>
       </c>
       <c r="D68" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E68">
-        <v>0.379687097234125</v>
+        <v>0.413596433711193</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1631,13 +1631,13 @@
         <v>12</v>
       </c>
       <c r="C69" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D69" t="s">
         <v>26</v>
       </c>
       <c r="E69">
-        <v>0.3794574066278861</v>
+        <v>0.4116646537108158</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1645,16 +1645,16 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C70" t="s">
         <v>20</v>
       </c>
       <c r="D70" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E70">
-        <v>0.3792496687156708</v>
+        <v>0.3999655221173667</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1662,16 +1662,16 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C71" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D71" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E71">
-        <v>0.3781988543706836</v>
+        <v>0.394938414283323</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1682,13 +1682,13 @@
         <v>12</v>
       </c>
       <c r="C72" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D72" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E72">
-        <v>0.3669044122372427</v>
+        <v>0.3867918120508946</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1696,16 +1696,16 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
         <v>19</v>
       </c>
       <c r="D73" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E73">
-        <v>0.3658914120398545</v>
+        <v>0.3855752641592215</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1713,16 +1713,16 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D74" t="s">
         <v>27</v>
       </c>
       <c r="E74">
-        <v>0.3631058272528684</v>
+        <v>0.3790001709931431</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1730,16 +1730,16 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C75" t="s">
         <v>19</v>
       </c>
       <c r="D75" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E75">
-        <v>0.359087713083739</v>
+        <v>0.3762426536292341</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1750,13 +1750,13 @@
         <v>12</v>
       </c>
       <c r="C76" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D76" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E76">
-        <v>0.3550763082311343</v>
+        <v>0.3725258517258657</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1764,16 +1764,16 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D77" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E77">
-        <v>0.3546944355111334</v>
+        <v>0.3696246621802184</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1781,16 +1781,16 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C78" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D78" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E78">
-        <v>0.3452522366933202</v>
+        <v>0.365054844346948</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1798,16 +1798,16 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C79" t="s">
         <v>20</v>
       </c>
       <c r="D79" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E79">
-        <v>0.3416230956296807</v>
+        <v>0.3604801725952736</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1815,16 +1815,16 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C80" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D80" t="s">
         <v>28</v>
       </c>
       <c r="E80">
-        <v>0.3361438955767306</v>
+        <v>0.3585424719821704</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1832,16 +1832,16 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C81" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D81" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E81">
-        <v>0.3359104358240785</v>
+        <v>0.3567530340063379</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1849,16 +1849,16 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C82" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D82" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E82">
-        <v>0.334136298186556</v>
+        <v>0.3545530686840531</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1866,16 +1866,16 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C83" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D83" t="s">
         <v>28</v>
       </c>
       <c r="E83">
-        <v>0.3321758084537797</v>
+        <v>0.3488899624590573</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1883,16 +1883,16 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C84" t="s">
         <v>20</v>
       </c>
       <c r="D84" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E84">
-        <v>0.3316908775673387</v>
+        <v>0.3432096871384605</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1900,16 +1900,16 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C85" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D85" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E85">
-        <v>0.3109439558939591</v>
+        <v>0.3357898773062971</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1917,16 +1917,16 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C86" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D86" t="s">
         <v>27</v>
       </c>
       <c r="E86">
-        <v>0.3107277331329326</v>
+        <v>0.3298907840972133</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1934,16 +1934,16 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C87" t="s">
         <v>18</v>
       </c>
       <c r="D87" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E87">
-        <v>0.3094298418137552</v>
+        <v>0.3277855067756504</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1960,7 +1960,7 @@
         <v>27</v>
       </c>
       <c r="E88">
-        <v>0.3010666373378278</v>
+        <v>0.3241057927611732</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1968,16 +1968,16 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C89" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D89" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E89">
-        <v>0.2985528260906757</v>
+        <v>0.3125440556304719</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1988,13 +1988,13 @@
         <v>11</v>
       </c>
       <c r="C90" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D90" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E90">
-        <v>0.2980606294024455</v>
+        <v>0.3108417233822316</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2002,16 +2002,16 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C91" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D91" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E91">
-        <v>0.2980082373648245</v>
+        <v>0.3081086488369288</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2019,16 +2019,16 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
         <v>20</v>
       </c>
       <c r="D92" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E92">
-        <v>0.2936243202171072</v>
+        <v>0.3073390210010629</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2036,16 +2036,16 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C93" t="s">
         <v>18</v>
       </c>
       <c r="D93" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E93">
-        <v>0.2928291405643975</v>
+        <v>0.3028692051827204</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2053,16 +2053,16 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C94" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D94" t="s">
         <v>28</v>
       </c>
       <c r="E94">
-        <v>0.2907101969750863</v>
+        <v>0.301853319582487</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2070,16 +2070,16 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C95" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D95" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E95">
-        <v>0.2863127943576282</v>
+        <v>0.2990325700099128</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2087,16 +2087,16 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C96" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D96" t="s">
         <v>27</v>
       </c>
       <c r="E96">
-        <v>0.2852237887247424</v>
+        <v>0.2956314466553999</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2104,16 +2104,16 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C97" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D97" t="s">
         <v>28</v>
       </c>
       <c r="E97">
-        <v>0.272445009179773</v>
+        <v>0.2902151090935213</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2124,13 +2124,13 @@
         <v>13</v>
       </c>
       <c r="C98" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D98" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E98">
-        <v>0.2724434533015175</v>
+        <v>0.2899167538069007</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2138,16 +2138,16 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C99" t="s">
         <v>22</v>
       </c>
       <c r="D99" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E99">
-        <v>0.2707114174408731</v>
+        <v>0.2894434640714932</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2155,16 +2155,16 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C100" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D100" t="s">
         <v>28</v>
       </c>
       <c r="E100">
-        <v>0.2657642135945641</v>
+        <v>0.2870201743705977</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2172,16 +2172,16 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C101" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D101" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E101">
-        <v>0.2655429494677751</v>
+        <v>0.2864288668734948</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2189,16 +2189,16 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C102" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D102" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E102">
-        <v>0.263009219380817</v>
+        <v>0.2848477937173972</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2206,7 +2206,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C103" t="s">
         <v>20</v>
@@ -2215,7 +2215,7 @@
         <v>27</v>
       </c>
       <c r="E103">
-        <v>0.2598700974188208</v>
+        <v>0.2718273514357866</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2223,16 +2223,16 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C104" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D104" t="s">
         <v>29</v>
       </c>
       <c r="E104">
-        <v>0.2596033564773785</v>
+        <v>0.2605666105796547</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2246,10 +2246,10 @@
         <v>24</v>
       </c>
       <c r="D105" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E105">
-        <v>0.2566857189500301</v>
+        <v>0.2600411825850568</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2257,16 +2257,16 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C106" t="s">
         <v>18</v>
       </c>
       <c r="D106" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E106">
-        <v>0.2565059066282898</v>
+        <v>0.2595614610963972</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2274,16 +2274,16 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C107" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D107" t="s">
         <v>29</v>
       </c>
       <c r="E107">
-        <v>0.2555313096764727</v>
+        <v>0.2576804930946083</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2291,16 +2291,16 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C108" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D108" t="s">
         <v>29</v>
       </c>
       <c r="E108">
-        <v>0.2553556200220191</v>
+        <v>0.2560550078288479</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2308,16 +2308,16 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C109" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D109" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E109">
-        <v>0.2534465249235734</v>
+        <v>0.2559411752016748</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2325,16 +2325,16 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C110" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D110" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E110">
-        <v>0.2532099059691399</v>
+        <v>0.2557134153801704</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2342,16 +2342,16 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C111" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D111" t="s">
         <v>29</v>
       </c>
       <c r="E111">
-        <v>0.2526971361145503</v>
+        <v>0.2548095829180985</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2359,16 +2359,16 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C112" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D112" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E112">
-        <v>0.2520062818809923</v>
+        <v>0.2537307234142741</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2376,16 +2376,16 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C113" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D113" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E113">
-        <v>0.25163128660845</v>
+        <v>0.25181354131776</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2393,16 +2393,16 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C114" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D114" t="s">
         <v>28</v>
       </c>
       <c r="E114">
-        <v>0.2498204259437731</v>
+        <v>0.2510920178830295</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2410,16 +2410,16 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D115" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E115">
-        <v>0.2476284835602874</v>
+        <v>0.2491081920385026</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2427,16 +2427,16 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C116" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D116" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E116">
-        <v>0.2470405752585633</v>
+        <v>0.2479803477567594</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2444,16 +2444,16 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D117" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E117">
-        <v>0.243066492905206</v>
+        <v>0.2462300341875719</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2461,16 +2461,16 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C118" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D118" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E118">
-        <v>0.2368996265121487</v>
+        <v>0.2453452025644773</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2478,16 +2478,16 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C119" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D119" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E119">
-        <v>0.2365875127790458</v>
+        <v>0.2399012980284721</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2495,16 +2495,16 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C120" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D120" t="s">
         <v>28</v>
       </c>
       <c r="E120">
-        <v>0.2338762531640357</v>
+        <v>0.239219573117572</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2512,16 +2512,16 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C121" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D121" t="s">
         <v>29</v>
       </c>
       <c r="E121">
-        <v>0.230450089942542</v>
+        <v>0.2391772652399832</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2529,16 +2529,16 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C122" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D122" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E122">
-        <v>0.2294200770348601</v>
+        <v>0.2380979787440759</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2546,16 +2546,16 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C123" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D123" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E123">
-        <v>0.2292240542468409</v>
+        <v>0.235213908535833</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2563,16 +2563,16 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C124" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D124" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E124">
-        <v>0.2289527349448126</v>
+        <v>0.232695450253716</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2580,16 +2580,16 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C125" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D125" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E125">
-        <v>0.2284910063968129</v>
+        <v>0.2325577565915923</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2597,16 +2597,16 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C126" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D126" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E126">
-        <v>0.2279120315853025</v>
+        <v>0.2298082202183477</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2614,16 +2614,16 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D127" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E127">
-        <v>0.2278175821199113</v>
+        <v>0.2289527349448126</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2631,16 +2631,16 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C128" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D128" t="s">
         <v>29</v>
       </c>
       <c r="E128">
-        <v>0.2274638985958035</v>
+        <v>0.2283801641472174</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2648,16 +2648,16 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C129" t="s">
         <v>20</v>
       </c>
       <c r="D129" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E129">
-        <v>0.2268732426115401</v>
+        <v>0.2278508283598949</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2665,16 +2665,16 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C130" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D130" t="s">
         <v>29</v>
       </c>
       <c r="E130">
-        <v>0.2266492669623691</v>
+        <v>0.2274589430407993</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2682,16 +2682,16 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C131" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D131" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E131">
-        <v>0.2261396797038754</v>
+        <v>0.2267622581849801</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2699,16 +2699,16 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C132" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D132" t="s">
         <v>29</v>
       </c>
       <c r="E132">
-        <v>0.2248706696471617</v>
+        <v>0.2254292340244645</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2716,16 +2716,16 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C133" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D133" t="s">
         <v>29</v>
       </c>
       <c r="E133">
-        <v>0.2238849185669121</v>
+        <v>0.2251070328253968</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2733,16 +2733,16 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C134" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D134" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E134">
-        <v>0.2235728668887644</v>
+        <v>0.2247291541800206</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2750,16 +2750,16 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C135" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D135" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E135">
-        <v>0.2231193839788502</v>
+        <v>0.2245603491878084</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -2770,13 +2770,13 @@
         <v>13</v>
       </c>
       <c r="C136" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D136" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E136">
-        <v>0.2221226654215586</v>
+        <v>0.2243881385641022</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -2784,16 +2784,16 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C137" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D137" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E137">
-        <v>0.2218331433149763</v>
+        <v>0.2223056177910875</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -2801,16 +2801,16 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C138" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D138" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E138">
-        <v>0.2211020649270118</v>
+        <v>0.2218540977614818</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -2818,16 +2818,16 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C139" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D139" t="s">
         <v>29</v>
       </c>
       <c r="E139">
-        <v>0.2208840168203409</v>
+        <v>0.2214667920648418</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -2838,13 +2838,13 @@
         <v>13</v>
       </c>
       <c r="C140" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D140" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E140">
-        <v>0.2204788273234456</v>
+        <v>0.2209748831421331</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -2855,13 +2855,13 @@
         <v>13</v>
       </c>
       <c r="C141" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D141" t="s">
         <v>29</v>
       </c>
       <c r="E141">
-        <v>0.2184303253443148</v>
+        <v>0.2201914754083709</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -2872,13 +2872,13 @@
         <v>13</v>
       </c>
       <c r="C142" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D142" t="s">
         <v>28</v>
       </c>
       <c r="E142">
-        <v>0.2175620785996819</v>
+        <v>0.2201912083118339</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -2886,16 +2886,16 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C143" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D143" t="s">
         <v>29</v>
       </c>
       <c r="E143">
-        <v>0.2175532738503757</v>
+        <v>0.220079401061293</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -2903,7 +2903,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C144" t="s">
         <v>19</v>
@@ -2912,7 +2912,7 @@
         <v>26</v>
       </c>
       <c r="E144">
-        <v>0.216879733014489</v>
+        <v>0.2192415919780793</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -2920,16 +2920,16 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C145" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D145" t="s">
         <v>29</v>
       </c>
       <c r="E145">
-        <v>0.2160942173264423</v>
+        <v>0.2190270344224571</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -2937,16 +2937,16 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C146" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D146" t="s">
         <v>28</v>
       </c>
       <c r="E146">
-        <v>0.215250397102491</v>
+        <v>0.2185213017893629</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -2954,16 +2954,16 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C147" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D147" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E147">
-        <v>0.2150191006958898</v>
+        <v>0.218326213841689</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -2971,16 +2971,16 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C148" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D148" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E148">
-        <v>0.2149720892982517</v>
+        <v>0.2175882653382993</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -2988,16 +2988,16 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C149" t="s">
         <v>20</v>
       </c>
       <c r="D149" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E149">
-        <v>0.2148755860219942</v>
+        <v>0.2167457690706428</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3005,16 +3005,16 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C150" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D150" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E150">
-        <v>0.2143151383738827</v>
+        <v>0.2156854649573133</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3022,16 +3022,16 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C151" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D151" t="s">
         <v>29</v>
       </c>
       <c r="E151">
-        <v>0.2140165167660124</v>
+        <v>0.2149143528555401</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3039,16 +3039,16 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C152" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D152" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E152">
-        <v>0.2106897333499274</v>
+        <v>0.214257063875177</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3056,16 +3056,16 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C153" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D153" t="s">
         <v>28</v>
       </c>
       <c r="E153">
-        <v>0.2096043106174936</v>
+        <v>0.214072545183425</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3073,16 +3073,16 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C154" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D154" t="s">
         <v>28</v>
       </c>
       <c r="E154">
-        <v>0.2095971795142619</v>
+        <v>0.2120163334965715</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3093,13 +3093,13 @@
         <v>16</v>
       </c>
       <c r="C155" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D155" t="s">
         <v>29</v>
       </c>
       <c r="E155">
-        <v>0.2081204697894359</v>
+        <v>0.2110592550753122</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3110,13 +3110,13 @@
         <v>16</v>
       </c>
       <c r="C156" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D156" t="s">
         <v>29</v>
       </c>
       <c r="E156">
-        <v>0.208053137435479</v>
+        <v>0.2106196366909937</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3124,16 +3124,16 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C157" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D157" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E157">
-        <v>0.2079896265166544</v>
+        <v>0.2099438306992419</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3141,16 +3141,16 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C158" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D158" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E158">
-        <v>0.2069470099314823</v>
+        <v>0.2094451668093468</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3158,7 +3158,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C159" t="s">
         <v>21</v>
@@ -3167,7 +3167,7 @@
         <v>28</v>
       </c>
       <c r="E159">
-        <v>0.2066723198227584</v>
+        <v>0.2075223946198819</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3175,16 +3175,16 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C160" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D160" t="s">
         <v>29</v>
       </c>
       <c r="E160">
-        <v>0.2065551272443983</v>
+        <v>0.2068341211222507</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3192,16 +3192,16 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C161" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D161" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E161">
-        <v>0.2056952176023233</v>
+        <v>0.2068338917791361</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3212,13 +3212,13 @@
         <v>16</v>
       </c>
       <c r="C162" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D162" t="s">
         <v>29</v>
       </c>
       <c r="E162">
-        <v>0.2053832958157716</v>
+        <v>0.2060806271934011</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3226,16 +3226,16 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C163" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D163" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E163">
-        <v>0.2040720501528012</v>
+        <v>0.2051147774800781</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3243,16 +3243,16 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C164" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D164" t="s">
         <v>28</v>
       </c>
       <c r="E164">
-        <v>0.2027482539567556</v>
+        <v>0.2048900563299587</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3269,7 +3269,7 @@
         <v>29</v>
       </c>
       <c r="E165">
-        <v>0.2016220974086531</v>
+        <v>0.2048070645732463</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3277,7 +3277,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C166" t="s">
         <v>18</v>
@@ -3286,7 +3286,7 @@
         <v>28</v>
       </c>
       <c r="E166">
-        <v>0.2014591897765257</v>
+        <v>0.2044807210208346</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3294,16 +3294,16 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C167" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D167" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E167">
-        <v>0.2014501170239829</v>
+        <v>0.2019838368812751</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3320,7 +3320,7 @@
         <v>28</v>
       </c>
       <c r="E168">
-        <v>0.2012470692470617</v>
+        <v>0.2000676799594022</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3328,16 +3328,16 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C169" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D169" t="s">
         <v>28</v>
       </c>
       <c r="E169">
-        <v>0.2007775173075489</v>
+        <v>0.1996950436932399</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3345,16 +3345,16 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C170" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D170" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E170">
-        <v>0.1993686555668694</v>
+        <v>0.1977575420751322</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3362,16 +3362,16 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C171" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D171" t="s">
         <v>28</v>
       </c>
       <c r="E171">
-        <v>0.1984360803413193</v>
+        <v>0.1975330171466956</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3382,13 +3382,13 @@
         <v>16</v>
       </c>
       <c r="C172" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D172" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E172">
-        <v>0.1980447234358608</v>
+        <v>0.1953458310035023</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3396,16 +3396,16 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C173" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D173" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E173">
-        <v>0.1979260331664765</v>
+        <v>0.1947807106401652</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3413,16 +3413,16 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C174" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D174" t="s">
         <v>28</v>
       </c>
       <c r="E174">
-        <v>0.1965235118989296</v>
+        <v>0.1946174385416706</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3430,16 +3430,16 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C175" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D175" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E175">
-        <v>0.1937671052198973</v>
+        <v>0.1938663663943558</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3447,16 +3447,16 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C176" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D176" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E176">
-        <v>0.1917723454039683</v>
+        <v>0.1938104119299314</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3464,16 +3464,16 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C177" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D177" t="s">
         <v>28</v>
       </c>
       <c r="E177">
-        <v>0.191585849804927</v>
+        <v>0.1936642512566605</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3481,7 +3481,7 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C178" t="s">
         <v>25</v>
@@ -3490,7 +3490,7 @@
         <v>28</v>
       </c>
       <c r="E178">
-        <v>0.1883729917373363</v>
+        <v>0.1932541845876656</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -3498,16 +3498,16 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D179" t="s">
         <v>27</v>
       </c>
       <c r="E179">
-        <v>0.1881465679768373</v>
+        <v>0.1923169656888822</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3515,16 +3515,16 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C180" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D180" t="s">
         <v>28</v>
       </c>
       <c r="E180">
-        <v>0.1876554906269019</v>
+        <v>0.1911734176414252</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -3532,16 +3532,16 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C181" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D181" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E181">
-        <v>0.186259749383577</v>
+        <v>0.189470862378383</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -3549,16 +3549,16 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C182" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D182" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E182">
-        <v>0.1855637945960398</v>
+        <v>0.1881465679768373</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -3566,16 +3566,16 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C183" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D183" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E183">
-        <v>0.1850855675861246</v>
+        <v>0.1872795822053885</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -3592,7 +3592,7 @@
         <v>28</v>
       </c>
       <c r="E184">
-        <v>0.1846813454951707</v>
+        <v>0.1855075464184786</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -3600,16 +3600,16 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D185" t="s">
         <v>29</v>
       </c>
       <c r="E185">
-        <v>0.183633406380664</v>
+        <v>0.1788658877239454</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -3620,13 +3620,13 @@
         <v>13</v>
       </c>
       <c r="C186" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D186" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E186">
-        <v>0.1830695386180263</v>
+        <v>0.1781492853011776</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -3634,16 +3634,16 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C187" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D187" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E187">
-        <v>0.1826485314359092</v>
+        <v>0.1781492853011776</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -3651,16 +3651,16 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C188" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D188" t="s">
         <v>26</v>
       </c>
       <c r="E188">
-        <v>0.1823565862562042</v>
+        <v>0.1781492853011776</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -3668,16 +3668,16 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
         <v>24</v>
       </c>
       <c r="D189" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E189">
-        <v>0.1781492853011776</v>
+        <v>0.1761012700512969</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -3685,16 +3685,16 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D190" t="s">
         <v>27</v>
       </c>
       <c r="E190">
-        <v>0.1781492853011776</v>
+        <v>0.1760148538471608</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -3702,16 +3702,16 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C191" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D191" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E191">
-        <v>0.1781492853011776</v>
+        <v>0.1756547237015258</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -3719,16 +3719,16 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D192" t="s">
         <v>29</v>
       </c>
       <c r="E192">
-        <v>0.1769008110153187</v>
+        <v>0.1751479695665348</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -3736,16 +3736,16 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D193" t="s">
         <v>28</v>
       </c>
       <c r="E193">
-        <v>0.1758031008118048</v>
+        <v>0.1750646461713921</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -3753,16 +3753,16 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D194" t="s">
         <v>29</v>
       </c>
       <c r="E194">
-        <v>0.1756698566582635</v>
+        <v>0.1748649016083295</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -3770,16 +3770,16 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D195" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E195">
-        <v>0.1754807873900419</v>
+        <v>0.1745549935331396</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -3787,16 +3787,16 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C196" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D196" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E196">
-        <v>0.17459592370267</v>
+        <v>0.1745525320913501</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -3804,16 +3804,16 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D197" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E197">
-        <v>0.1731211850869367</v>
+        <v>0.1723859011943205</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -3824,13 +3824,13 @@
         <v>14</v>
       </c>
       <c r="C198" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D198" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E198">
-        <v>0.1723713265397413</v>
+        <v>0.1720551083113477</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -3838,16 +3838,16 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D199" t="s">
         <v>29</v>
       </c>
       <c r="E199">
-        <v>0.1721949963601857</v>
+        <v>0.1718044407170913</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -3855,16 +3855,16 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C200" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D200" t="s">
         <v>28</v>
       </c>
       <c r="E200">
-        <v>0.1700023910409837</v>
+        <v>0.171780627595445</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -3872,16 +3872,16 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C201" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D201" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E201">
-        <v>0.1685479889149837</v>
+        <v>0.1705079677350782</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -3889,16 +3889,16 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C202" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D202" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E202">
-        <v>0.1638399643758895</v>
+        <v>0.1689888572746061</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -3906,16 +3906,16 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C203" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D203" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E203">
-        <v>0.1628655854961142</v>
+        <v>0.1686987139668248</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -3923,16 +3923,16 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C204" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D204" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E204">
-        <v>0.1628655854961142</v>
+        <v>0.1678453332606609</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -3940,16 +3940,16 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C205" t="s">
         <v>18</v>
       </c>
       <c r="D205" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E205">
-        <v>0.1609020446188911</v>
+        <v>0.1638802372146781</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -3957,16 +3957,16 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C206" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D206" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E206">
-        <v>0.1606534216050032</v>
+        <v>0.1638603682522383</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -3974,16 +3974,16 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C207" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D207" t="s">
         <v>27</v>
       </c>
       <c r="E207">
-        <v>0.1601884998233612</v>
+        <v>0.1610286644355369</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -3991,16 +3991,16 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C208" t="s">
         <v>18</v>
       </c>
       <c r="D208" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E208">
-        <v>0.1565996542796424</v>
+        <v>0.1580158766399598</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -4008,16 +4008,16 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C209" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D209" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E209">
-        <v>0.1556524016991654</v>
+        <v>0.1576848746806872</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -4025,16 +4025,16 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C210" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D210" t="s">
         <v>28</v>
       </c>
       <c r="E210">
-        <v>0.1552326190989034</v>
+        <v>0.1562802558427638</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -4042,16 +4042,16 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C211" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D211" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E211">
-        <v>0.1540976302565813</v>
+        <v>0.1539108069413738</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -4059,16 +4059,16 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C212" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D212" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E212">
-        <v>0.1524490982079318</v>
+        <v>0.1531242940093813</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -4082,7 +4082,7 @@
         <v>24</v>
       </c>
       <c r="D213" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E213">
         <v>0.1521765913957621</v>
@@ -4093,16 +4093,16 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C214" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D214" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E214">
-        <v>0.151729640929991</v>
+        <v>0.1517019857071089</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4110,16 +4110,16 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C215" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D215" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E215">
-        <v>0.1516951494728069</v>
+        <v>0.1509752237884109</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4127,16 +4127,16 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C216" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D216" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E216">
-        <v>0.1509752237884109</v>
+        <v>0.1487661985244579</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4144,16 +4144,16 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C217" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D217" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E217">
-        <v>0.150861032604092</v>
+        <v>0.1486614754979821</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4170,7 +4170,7 @@
         <v>28</v>
       </c>
       <c r="E218">
-        <v>0.148971003431903</v>
+        <v>0.1485181042730429</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4178,16 +4178,16 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C219" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D219" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E219">
-        <v>0.1482004455026443</v>
+        <v>0.1482501563194096</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4195,16 +4195,16 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C220" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D220" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E220">
-        <v>0.1461806178792191</v>
+        <v>0.1459199519337175</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -4212,16 +4212,16 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C221" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D221" t="s">
         <v>29</v>
       </c>
       <c r="E221">
-        <v>0.1461260430221603</v>
+        <v>0.1458639531476452</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4229,16 +4229,16 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C222" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D222" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E222">
-        <v>0.1452650646107989</v>
+        <v>0.1457554299687589</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -4246,16 +4246,16 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C223" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D223" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E223">
-        <v>0.1448728785441417</v>
+        <v>0.145084707500549</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -4263,16 +4263,16 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C224" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D224" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E224">
-        <v>0.1444392397382374</v>
+        <v>0.1445035128993463</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -4280,16 +4280,16 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C225" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D225" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E225">
-        <v>0.1441553254076459</v>
+        <v>0.1443729366449153</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -4297,16 +4297,16 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C226" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D226" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E226">
-        <v>0.1439076629528228</v>
+        <v>0.1443516818360243</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -4314,16 +4314,16 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C227" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D227" t="s">
         <v>28</v>
       </c>
       <c r="E227">
-        <v>0.1436118094867353</v>
+        <v>0.1438627779470336</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -4331,16 +4331,16 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C228" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D228" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E228">
-        <v>0.1434860107958882</v>
+        <v>0.1435844840848603</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -4348,16 +4348,16 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C229" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D229" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E229">
-        <v>0.1428338869528963</v>
+        <v>0.1435456424617552</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -4368,13 +4368,13 @@
         <v>9</v>
       </c>
       <c r="C230" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D230" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E230">
-        <v>0.1422367248723211</v>
+        <v>0.1428338869528963</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -4382,16 +4382,16 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C231" t="s">
         <v>18</v>
       </c>
       <c r="D231" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E231">
-        <v>0.1419335180037812</v>
+        <v>0.1427548123012549</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -4399,16 +4399,16 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C232" t="s">
         <v>21</v>
       </c>
       <c r="D232" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E232">
-        <v>0.1402503558457162</v>
+        <v>0.1421588426773367</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -4416,16 +4416,16 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C233" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D233" t="s">
         <v>29</v>
       </c>
       <c r="E233">
-        <v>0.139832402141978</v>
+        <v>0.1418962334490655</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -4433,16 +4433,16 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C234" t="s">
         <v>18</v>
       </c>
       <c r="D234" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E234">
-        <v>0.1397647685978151</v>
+        <v>0.1418355334804886</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -4450,16 +4450,16 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C235" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D235" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E235">
-        <v>0.1391061984721494</v>
+        <v>0.1416991242773137</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -4467,16 +4467,16 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C236" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D236" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E236">
-        <v>0.1389994652190525</v>
+        <v>0.1411949594363339</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -4484,16 +4484,16 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C237" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D237" t="s">
         <v>29</v>
       </c>
       <c r="E237">
-        <v>0.1384630447401151</v>
+        <v>0.1410708836075326</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -4501,7 +4501,7 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C238" t="s">
         <v>20</v>
@@ -4510,7 +4510,7 @@
         <v>29</v>
       </c>
       <c r="E238">
-        <v>0.1384058792224837</v>
+        <v>0.1408454357850664</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -4518,16 +4518,16 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C239" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D239" t="s">
         <v>27</v>
       </c>
       <c r="E239">
-        <v>0.1383834082517826</v>
+        <v>0.1403808309480484</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -4535,16 +4535,16 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C240" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D240" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E240">
-        <v>0.1379461946306784</v>
+        <v>0.1391490514191806</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -4552,16 +4552,16 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C241" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D241" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E241">
-        <v>0.1375841295474086</v>
+        <v>0.1384049474858224</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -4569,16 +4569,16 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C242" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D242" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E242">
-        <v>0.1371286199560297</v>
+        <v>0.1383238550641265</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -4586,16 +4586,16 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C243" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D243" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E243">
-        <v>0.1365544951102823</v>
+        <v>0.1372679917503132</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -4603,16 +4603,16 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C244" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D244" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E244">
-        <v>0.1364089155408575</v>
+        <v>0.1368238179261878</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -4620,16 +4620,16 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C245" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D245" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E245">
-        <v>0.1358254255939371</v>
+        <v>0.1367763525421611</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -4637,16 +4637,16 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C246" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D246" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E246">
-        <v>0.1358226441660599</v>
+        <v>0.1359154027893567</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -4657,13 +4657,13 @@
         <v>11</v>
       </c>
       <c r="C247" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D247" t="s">
         <v>29</v>
       </c>
       <c r="E247">
-        <v>0.1356799779546838</v>
+        <v>0.1355529356488295</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -4671,16 +4671,16 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C248" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D248" t="s">
         <v>29</v>
       </c>
       <c r="E248">
-        <v>0.1355790723239059</v>
+        <v>0.1355057013542142</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -4688,16 +4688,16 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C249" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D249" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E249">
-        <v>0.1350669465070861</v>
+        <v>0.1346550968183576</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -4705,16 +4705,16 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C250" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D250" t="s">
         <v>29</v>
       </c>
       <c r="E250">
-        <v>0.1350204909491885</v>
+        <v>0.1345701137982081</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -4722,16 +4722,16 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C251" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D251" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E251">
-        <v>0.1347294875611655</v>
+        <v>0.1340938483178816</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -4739,16 +4739,16 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C252" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D252" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E252">
-        <v>0.1336610399974618</v>
+        <v>0.1340181942530641</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -4756,16 +4756,16 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C253" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D253" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E253">
-        <v>0.1328514614201278</v>
+        <v>0.1338844691621366</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -4773,16 +4773,16 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C254" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D254" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E254">
-        <v>0.1328268976338935</v>
+        <v>0.1334040861875007</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -4790,16 +4790,16 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C255" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D255" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E255">
-        <v>0.1312334645668636</v>
+        <v>0.133308817832778</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -4807,16 +4807,16 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C256" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D256" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E256">
-        <v>0.1311077452316586</v>
+        <v>0.1325451968519558</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -4824,16 +4824,16 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C257" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D257" t="s">
         <v>29</v>
       </c>
       <c r="E257">
-        <v>0.1310252887313619</v>
+        <v>0.1320996980762579</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -4841,16 +4841,16 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C258" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D258" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E258">
-        <v>0.1306567081372141</v>
+        <v>0.1320486150074228</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -4858,16 +4858,16 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C259" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D259" t="s">
         <v>29</v>
       </c>
       <c r="E259">
-        <v>0.1303005828558698</v>
+        <v>0.1313612896202071</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -4878,13 +4878,13 @@
         <v>17</v>
       </c>
       <c r="C260" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D260" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E260">
-        <v>0.1288070335244529</v>
+        <v>0.1306495737092832</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -4895,13 +4895,13 @@
         <v>6</v>
       </c>
       <c r="C261" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D261" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E261">
-        <v>0.1283488206556379</v>
+        <v>0.1303511028517437</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -4909,7 +4909,7 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C262" t="s">
         <v>24</v>
@@ -4918,7 +4918,7 @@
         <v>28</v>
       </c>
       <c r="E262">
-        <v>0.127980118186725</v>
+        <v>0.1300925017854074</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -4926,16 +4926,16 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C263" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D263" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E263">
-        <v>0.1277569367008084</v>
+        <v>0.1291138820188769</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -4943,16 +4943,16 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C264" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D264" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E264">
-        <v>0.1275948771205844</v>
+        <v>0.1286063330884205</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -4960,16 +4960,16 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C265" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D265" t="s">
         <v>28</v>
       </c>
       <c r="E265">
-        <v>0.1275497115372739</v>
+        <v>0.127743629339047</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -4977,16 +4977,16 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C266" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D266" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E266">
-        <v>0.1273331394614815</v>
+        <v>0.1272974888892073</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -4994,16 +4994,16 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C267" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D267" t="s">
         <v>29</v>
       </c>
       <c r="E267">
-        <v>0.1262221109676301</v>
+        <v>0.1265183450358043</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -5011,16 +5011,16 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C268" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D268" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E268">
-        <v>0.1259570974288514</v>
+        <v>0.1264893589747254</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -5028,16 +5028,16 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C269" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D269" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E269">
-        <v>0.1252446969031542</v>
+        <v>0.1254194902961194</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -5045,16 +5045,16 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C270" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D270" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E270">
-        <v>0.1248966067091701</v>
+        <v>0.1250875768979693</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -5062,16 +5062,16 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C271" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D271" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E271">
-        <v>0.1246563215585082</v>
+        <v>0.1249791264697932</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -5079,16 +5079,16 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C272" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D272" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E272">
-        <v>0.1236846065088749</v>
+        <v>0.1248507523610745</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -5096,16 +5096,16 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C273" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D273" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E273">
-        <v>0.1236339441526013</v>
+        <v>0.1247667458948727</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -5113,16 +5113,16 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C274" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D274" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E274">
-        <v>0.1235835116678851</v>
+        <v>0.1247115753459997</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -5130,16 +5130,16 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C275" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D275" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E275">
-        <v>0.123579262121502</v>
+        <v>0.1242788000367005</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -5147,16 +5147,16 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C276" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D276" t="s">
         <v>28</v>
       </c>
       <c r="E276">
-        <v>0.1227964873519655</v>
+        <v>0.1240567261547585</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -5164,16 +5164,16 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C277" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D277" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E277">
-        <v>0.122547022987223</v>
+        <v>0.1236768387890409</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -5187,10 +5187,10 @@
         <v>25</v>
       </c>
       <c r="D278" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E278">
-        <v>0.1221688246316545</v>
+        <v>0.1226270531623261</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -5198,16 +5198,16 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C279" t="s">
         <v>25</v>
       </c>
       <c r="D279" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E279">
-        <v>0.1219470106364017</v>
+        <v>0.1225624875917029</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -5215,16 +5215,16 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C280" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D280" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E280">
-        <v>0.1217624475559784</v>
+        <v>0.1217546367110262</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -5232,16 +5232,16 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C281" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D281" t="s">
         <v>29</v>
       </c>
       <c r="E281">
-        <v>0.1211520813401629</v>
+        <v>0.1209622206680638</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -5249,16 +5249,16 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C282" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D282" t="s">
         <v>29</v>
       </c>
       <c r="E282">
-        <v>0.1203113193436823</v>
+        <v>0.1209073616300301</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -5266,16 +5266,16 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C283" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D283" t="s">
         <v>29</v>
       </c>
       <c r="E283">
-        <v>0.1202541029546453</v>
+        <v>0.1203319778996579</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -5283,16 +5283,16 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C284" t="s">
         <v>22</v>
       </c>
       <c r="D284" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E284">
-        <v>0.1201792627797441</v>
+        <v>0.1196632061837044</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -5300,16 +5300,16 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C285" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D285" t="s">
         <v>29</v>
       </c>
       <c r="E285">
-        <v>0.120135945468961</v>
+        <v>0.1192148053535182</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -5317,16 +5317,16 @@
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C286" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D286" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E286">
-        <v>0.1192746747280374</v>
+        <v>0.1191586461884344</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -5334,16 +5334,16 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C287" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D287" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E287">
-        <v>0.1191394337558293</v>
+        <v>0.1191087617019282</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -5351,16 +5351,16 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C288" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D288" t="s">
         <v>29</v>
       </c>
       <c r="E288">
-        <v>0.1189316331698686</v>
+        <v>0.1189161766364379</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -5371,13 +5371,13 @@
         <v>12</v>
       </c>
       <c r="C289" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D289" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E289">
-        <v>0.1173973148888087</v>
+        <v>0.1181803781982441</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -5388,13 +5388,13 @@
         <v>11</v>
       </c>
       <c r="C290" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D290" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E290">
-        <v>0.1162437201150633</v>
+        <v>0.117804595219823</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -5402,16 +5402,16 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C291" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D291" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E291">
-        <v>0.115935563476175</v>
+        <v>0.1175464190373657</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -5419,16 +5419,16 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C292" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D292" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E292">
-        <v>0.1154772678024644</v>
+        <v>0.1173926566709142</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -5436,16 +5436,16 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C293" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D293" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E293">
-        <v>0.1150429080835505</v>
+        <v>0.1172119131549861</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -5453,16 +5453,16 @@
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C294" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D294" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E294">
-        <v>0.1144123418592226</v>
+        <v>0.1172069733078782</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -5470,16 +5470,16 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C295" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D295" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E295">
-        <v>0.1143880371670695</v>
+        <v>0.1161857949263745</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -5487,16 +5487,16 @@
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C296" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D296" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E296">
-        <v>0.1135605170333236</v>
+        <v>0.1159868897211179</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -5504,16 +5504,16 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C297" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D297" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E297">
-        <v>0.1134118500610642</v>
+        <v>0.1155043563250745</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -5521,16 +5521,16 @@
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C298" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D298" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E298">
-        <v>0.1124353287902054</v>
+        <v>0.1146779104182953</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -5538,16 +5538,16 @@
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C299" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D299" t="s">
         <v>27</v>
       </c>
       <c r="E299">
-        <v>0.1117475390669186</v>
+        <v>0.1144876105480937</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -5558,13 +5558,13 @@
         <v>7</v>
       </c>
       <c r="C300" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D300" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E300">
-        <v>0.1117208653765674</v>
+        <v>0.114239595206372</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -5572,16 +5572,16 @@
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C301" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D301" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E301">
-        <v>0.1103986177692202</v>
+        <v>0.1139431529247618</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -5589,16 +5589,16 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C302" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D302" t="s">
         <v>27</v>
       </c>
       <c r="E302">
-        <v>0.1102194973491893</v>
+        <v>0.1120466886993165</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -5606,16 +5606,16 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C303" t="s">
         <v>22</v>
       </c>
       <c r="D303" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E303">
-        <v>0.1100614361461087</v>
+        <v>0.1117475390669186</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -5623,16 +5623,16 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C304" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D304" t="s">
         <v>26</v>
       </c>
       <c r="E304">
-        <v>0.1089816144016655</v>
+        <v>0.1117208653765674</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -5640,16 +5640,16 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C305" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D305" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E305">
-        <v>0.1088376425266647</v>
+        <v>0.1116413528464038</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -5657,16 +5657,16 @@
         <v>305</v>
       </c>
       <c r="B306" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C306" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D306" t="s">
         <v>26</v>
       </c>
       <c r="E306">
-        <v>0.1086803458611033</v>
+        <v>0.1115008180796557</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -5674,16 +5674,16 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C307" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D307" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E307">
-        <v>0.1082871509454214</v>
+        <v>0.1114105934070906</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -5691,16 +5691,16 @@
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C308" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D308" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E308">
-        <v>0.1075116509022877</v>
+        <v>0.1110987468364509</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -5711,13 +5711,13 @@
         <v>10</v>
       </c>
       <c r="C309" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D309" t="s">
         <v>27</v>
       </c>
       <c r="E309">
-        <v>0.1073558214830775</v>
+        <v>0.1108075142503553</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -5725,16 +5725,16 @@
         <v>309</v>
       </c>
       <c r="B310" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C310" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D310" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E310">
-        <v>0.1068781352817682</v>
+        <v>0.1107054133690642</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -5745,13 +5745,13 @@
         <v>9</v>
       </c>
       <c r="C311" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D311" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E311">
-        <v>0.106854642283014</v>
+        <v>0.110609392106843</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -5759,16 +5759,16 @@
         <v>311</v>
       </c>
       <c r="B312" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C312" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D312" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E312">
-        <v>0.1065273700753941</v>
+        <v>0.1102194973491893</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -5776,16 +5776,16 @@
         <v>312</v>
       </c>
       <c r="B313" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C313" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D313" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E313">
-        <v>0.1061061304535055</v>
+        <v>0.1101886563783371</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -5793,16 +5793,16 @@
         <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C314" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D314" t="s">
         <v>29</v>
       </c>
       <c r="E314">
-        <v>0.1055431178288607</v>
+        <v>0.1098535679569182</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -5810,16 +5810,16 @@
         <v>314</v>
       </c>
       <c r="B315" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C315" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D315" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E315">
-        <v>0.105210663106901</v>
+        <v>0.1085685184144448</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -5827,16 +5827,16 @@
         <v>315</v>
       </c>
       <c r="B316" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C316" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D316" t="s">
         <v>28</v>
       </c>
       <c r="E316">
-        <v>0.1047037359717516</v>
+        <v>0.1075718533363673</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -5844,16 +5844,16 @@
         <v>316</v>
       </c>
       <c r="B317" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C317" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D317" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E317">
-        <v>0.1037092128116865</v>
+        <v>0.1074612095032974</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -5861,16 +5861,16 @@
         <v>317</v>
       </c>
       <c r="B318" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C318" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D318" t="s">
         <v>29</v>
       </c>
       <c r="E318">
-        <v>0.1031684056287715</v>
+        <v>0.1054808517435335</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -5878,16 +5878,16 @@
         <v>318</v>
       </c>
       <c r="B319" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C319" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D319" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E319">
-        <v>0.1030195197309213</v>
+        <v>0.105013295599907</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -5895,16 +5895,16 @@
         <v>319</v>
       </c>
       <c r="B320" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C320" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D320" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E320">
-        <v>0.1027958469650599</v>
+        <v>0.1044024063074538</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -5912,16 +5912,16 @@
         <v>320</v>
       </c>
       <c r="B321" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C321" t="s">
         <v>22</v>
       </c>
       <c r="D321" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E321">
-        <v>0.1023700077020435</v>
+        <v>0.1041941295737563</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -5929,16 +5929,16 @@
         <v>321</v>
       </c>
       <c r="B322" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C322" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D322" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E322">
-        <v>0.1014957615230084</v>
+        <v>0.1038838104400056</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -5949,13 +5949,13 @@
         <v>9</v>
       </c>
       <c r="C323" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D323" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E323">
-        <v>0.1005178497525743</v>
+        <v>0.1024608687637037</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -5963,16 +5963,16 @@
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C324" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D324" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E324">
-        <v>0.09950186232920952</v>
+        <v>0.1016938541867998</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -5980,16 +5980,16 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C325" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D325" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E325">
-        <v>0.09826216039821704</v>
+        <v>0.1009612231388875</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -5997,16 +5997,16 @@
         <v>325</v>
       </c>
       <c r="B326" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C326" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D326" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E326">
-        <v>0.09714727695683167</v>
+        <v>0.1008957711028413</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -6014,16 +6014,16 @@
         <v>326</v>
       </c>
       <c r="B327" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C327" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D327" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E327">
-        <v>0.09698654797695308</v>
+        <v>0.09943753307412624</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -6031,7 +6031,7 @@
         <v>327</v>
       </c>
       <c r="B328" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C328" t="s">
         <v>24</v>
@@ -6040,7 +6040,7 @@
         <v>28</v>
       </c>
       <c r="E328">
-        <v>0.09628476099794288</v>
+        <v>0.09775070036312515</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -6048,16 +6048,16 @@
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C329" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D329" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E329">
-        <v>0.09598669347468479</v>
+        <v>0.09730706830675828</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -6065,16 +6065,16 @@
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C330" t="s">
         <v>25</v>
       </c>
       <c r="D330" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E330">
-        <v>0.09571245644512789</v>
+        <v>0.09727239334044958</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -6082,16 +6082,16 @@
         <v>330</v>
       </c>
       <c r="B331" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C331" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D331" t="s">
         <v>28</v>
       </c>
       <c r="E331">
-        <v>0.09530529406809141</v>
+        <v>0.09718704910493486</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -6099,16 +6099,16 @@
         <v>331</v>
       </c>
       <c r="B332" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C332" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D332" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E332">
-        <v>0.09456485230771164</v>
+        <v>0.09666049342340506</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -6116,16 +6116,16 @@
         <v>332</v>
       </c>
       <c r="B333" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C333" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D333" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E333">
-        <v>0.09262065918884801</v>
+        <v>0.09655557607625723</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -6136,13 +6136,13 @@
         <v>12</v>
       </c>
       <c r="C334" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D334" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E334">
-        <v>0.09236687040002502</v>
+        <v>0.09511633102712522</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -6150,16 +6150,16 @@
         <v>334</v>
       </c>
       <c r="B335" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C335" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D335" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E335">
-        <v>0.09202378456892617</v>
+        <v>0.09467816843718108</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -6167,16 +6167,16 @@
         <v>335</v>
       </c>
       <c r="B336" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C336" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D336" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E336">
-        <v>0.09134919946487638</v>
+        <v>0.09393556688177698</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -6184,16 +6184,16 @@
         <v>336</v>
       </c>
       <c r="B337" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C337" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D337" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E337">
-        <v>0.0909065469426463</v>
+        <v>0.0930359199842179</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -6201,16 +6201,16 @@
         <v>337</v>
       </c>
       <c r="B338" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C338" t="s">
         <v>22</v>
       </c>
       <c r="D338" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E338">
-        <v>0.09061588345502933</v>
+        <v>0.092760183582624</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -6218,7 +6218,7 @@
         <v>338</v>
       </c>
       <c r="B339" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C339" t="s">
         <v>25</v>
@@ -6227,7 +6227,7 @@
         <v>28</v>
       </c>
       <c r="E339">
-        <v>0.08939092344705356</v>
+        <v>0.09195935081782332</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -6235,16 +6235,16 @@
         <v>339</v>
       </c>
       <c r="B340" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C340" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D340" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E340">
-        <v>0.08675306409462681</v>
+        <v>0.09155119047787898</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -6252,16 +6252,16 @@
         <v>340</v>
       </c>
       <c r="B341" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C341" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D341" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E341">
-        <v>0.08610031219492012</v>
+        <v>0.09117554178095384</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -6269,16 +6269,16 @@
         <v>341</v>
       </c>
       <c r="B342" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C342" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D342" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E342">
-        <v>0.08547815651208097</v>
+        <v>0.08681396400354785</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -6286,16 +6286,16 @@
         <v>342</v>
       </c>
       <c r="B343" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C343" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D343" t="s">
         <v>28</v>
       </c>
       <c r="E343">
-        <v>0.08513195703163486</v>
+        <v>0.08672978012790911</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -6303,16 +6303,16 @@
         <v>343</v>
       </c>
       <c r="B344" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C344" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D344" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E344">
-        <v>0.08405863825810361</v>
+        <v>0.08384671387235365</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -6320,16 +6320,16 @@
         <v>344</v>
       </c>
       <c r="B345" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C345" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D345" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E345">
-        <v>0.08184773107962438</v>
+        <v>0.08352267915061412</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -6340,13 +6340,13 @@
         <v>15</v>
       </c>
       <c r="C346" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D346" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E346">
-        <v>0.08130647550765237</v>
+        <v>0.08028511768710966</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -6354,16 +6354,16 @@
         <v>346</v>
       </c>
       <c r="B347" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C347" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D347" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E347">
-        <v>0.0812028072590108</v>
+        <v>0.07970621914008512</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -6371,16 +6371,16 @@
         <v>347</v>
       </c>
       <c r="B348" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C348" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D348" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E348">
-        <v>0.07994801799123218</v>
+        <v>0.07964999425939995</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -6388,16 +6388,16 @@
         <v>348</v>
       </c>
       <c r="B349" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C349" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D349" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E349">
-        <v>0.07970891619425077</v>
+        <v>0.07622561741263342</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -6408,13 +6408,13 @@
         <v>6</v>
       </c>
       <c r="C350" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D350" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E350">
-        <v>0.0796535256361717</v>
+        <v>0.07486918753969173</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -6422,16 +6422,16 @@
         <v>350</v>
       </c>
       <c r="B351" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C351" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D351" t="s">
         <v>28</v>
       </c>
       <c r="E351">
-        <v>0.07939807564259807</v>
+        <v>0.07452705975484908</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -6439,16 +6439,16 @@
         <v>351</v>
       </c>
       <c r="B352" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C352" t="s">
         <v>21</v>
       </c>
       <c r="D352" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E352">
-        <v>0.07896277628398246</v>
+        <v>0.07449690693455666</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -6456,16 +6456,16 @@
         <v>352</v>
       </c>
       <c r="B353" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C353" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D353" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E353">
-        <v>0.07825320217398603</v>
+        <v>0.07443603565497678</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -6473,16 +6473,16 @@
         <v>353</v>
       </c>
       <c r="B354" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C354" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D354" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E354">
-        <v>0.07813509219814141</v>
+        <v>0.07436112868676682</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -6490,16 +6490,16 @@
         <v>354</v>
       </c>
       <c r="B355" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C355" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D355" t="s">
         <v>29</v>
       </c>
       <c r="E355">
-        <v>0.07324873221898076</v>
+        <v>0.07381970649958479</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -6507,16 +6507,16 @@
         <v>355</v>
       </c>
       <c r="B356" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C356" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D356" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E356">
-        <v>0.07290639074733804</v>
+        <v>0.07360544660530678</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -6524,16 +6524,16 @@
         <v>356</v>
       </c>
       <c r="B357" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C357" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D357" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E357">
-        <v>0.07181046442120606</v>
+        <v>0.07337832833988189</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -6541,16 +6541,16 @@
         <v>357</v>
       </c>
       <c r="B358" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C358" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D358" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E358">
-        <v>0.0707575971677606</v>
+        <v>0.0726643967265795</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -6558,16 +6558,16 @@
         <v>358</v>
       </c>
       <c r="B359" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C359" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D359" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E359">
-        <v>0.07063865440247148</v>
+        <v>0.07148959808343235</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -6575,16 +6575,16 @@
         <v>359</v>
       </c>
       <c r="B360" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C360" t="s">
         <v>23</v>
       </c>
       <c r="D360" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E360">
-        <v>0.0702290712373423</v>
+        <v>0.07048679081811976</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -6592,16 +6592,16 @@
         <v>360</v>
       </c>
       <c r="B361" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C361" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D361" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E361">
-        <v>0.06924738775425023</v>
+        <v>0.0704386007137538</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -6609,16 +6609,16 @@
         <v>361</v>
       </c>
       <c r="B362" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C362" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D362" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E362">
-        <v>0.06556459580678066</v>
+        <v>0.07022785359703745</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -6626,16 +6626,16 @@
         <v>362</v>
       </c>
       <c r="B363" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C363" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D363" t="s">
         <v>28</v>
       </c>
       <c r="E363">
-        <v>0.06477460189027713</v>
+        <v>0.07009842742973976</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -6643,16 +6643,16 @@
         <v>363</v>
       </c>
       <c r="B364" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C364" t="s">
         <v>25</v>
       </c>
       <c r="D364" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E364">
-        <v>0.06411089236453825</v>
+        <v>0.06943434205472473</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -6660,16 +6660,16 @@
         <v>364</v>
       </c>
       <c r="B365" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C365" t="s">
         <v>23</v>
       </c>
       <c r="D365" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E365">
-        <v>0.06372862164681165</v>
+        <v>0.06805541825489186</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -6677,16 +6677,16 @@
         <v>365</v>
       </c>
       <c r="B366" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C366" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D366" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E366">
-        <v>0.06363700276283037</v>
+        <v>0.06776560217004263</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -6700,10 +6700,10 @@
         <v>25</v>
       </c>
       <c r="D367" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E367">
-        <v>0.06301081682670727</v>
+        <v>0.06735558616518737</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -6711,16 +6711,16 @@
         <v>367</v>
       </c>
       <c r="B368" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C368" t="s">
         <v>21</v>
       </c>
       <c r="D368" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E368">
-        <v>0.05948003266030751</v>
+        <v>0.06537847236536723</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -6728,16 +6728,16 @@
         <v>368</v>
       </c>
       <c r="B369" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C369" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D369" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E369">
-        <v>0.05878561557452332</v>
+        <v>0.06506358143871055</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -6745,16 +6745,16 @@
         <v>369</v>
       </c>
       <c r="B370" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C370" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D370" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E370">
-        <v>0.0558955126332638</v>
+        <v>0.06401588776091169</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -6762,16 +6762,16 @@
         <v>370</v>
       </c>
       <c r="B371" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C371" t="s">
         <v>24</v>
       </c>
       <c r="D371" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E371">
-        <v>0.05500122461477027</v>
+        <v>0.05995020593151803</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -6779,16 +6779,16 @@
         <v>371</v>
       </c>
       <c r="B372" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C372" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D372" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E372">
-        <v>0.05490769497458377</v>
+        <v>0.05888563000688206</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -6796,16 +6796,16 @@
         <v>372</v>
       </c>
       <c r="B373" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C373" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D373" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E373">
-        <v>0.05468231625895725</v>
+        <v>0.05687314335055343</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -6813,16 +6813,16 @@
         <v>373</v>
       </c>
       <c r="B374" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C374" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D374" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E374">
-        <v>0.05443287927236386</v>
+        <v>0.05164483024599425</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -6830,16 +6830,16 @@
         <v>374</v>
       </c>
       <c r="B375" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C375" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D375" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E375">
-        <v>0.05348018935541342</v>
+        <v>0.04988933053287626</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -6847,16 +6847,16 @@
         <v>375</v>
       </c>
       <c r="B376" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C376" t="s">
         <v>24</v>
       </c>
       <c r="D376" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E376">
-        <v>0.05268778206067036</v>
+        <v>0.04763076484291304</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -6864,16 +6864,16 @@
         <v>376</v>
       </c>
       <c r="B377" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C377" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D377" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E377">
-        <v>0.04907891474613269</v>
+        <v>0.04068171299248535</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -6881,16 +6881,16 @@
         <v>377</v>
       </c>
       <c r="B378" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C378" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D378" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E378">
-        <v>0.048418912470141</v>
+        <v>0.03019650064596969</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -6898,16 +6898,16 @@
         <v>378</v>
       </c>
       <c r="B379" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C379" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D379" t="s">
         <v>27</v>
       </c>
       <c r="E379">
-        <v>0.04452246459467245</v>
+        <v>0.02065330635139356</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -6915,16 +6915,16 @@
         <v>379</v>
       </c>
       <c r="B380" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C380" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D380" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E380">
-        <v>0.04009824466800365</v>
+        <v>0.01230312707369045</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -6935,13 +6935,13 @@
         <v>16</v>
       </c>
       <c r="C381" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D381" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E381">
-        <v>0.03447001589784254</v>
+        <v>0.01042530909609624</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -6949,16 +6949,16 @@
         <v>381</v>
       </c>
       <c r="B382" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C382" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D382" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E382">
-        <v>0.01843871051193113</v>
+        <v>0.009964021382258458</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -6969,13 +6969,13 @@
         <v>17</v>
       </c>
       <c r="C383" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D383" t="s">
         <v>26</v>
       </c>
       <c r="E383">
-        <v>0.004177654508494097</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -6983,13 +6983,13 @@
         <v>383</v>
       </c>
       <c r="B384" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C384" t="s">
         <v>25</v>
       </c>
       <c r="D384" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E384">
         <v>0</v>
@@ -7000,13 +7000,13 @@
         <v>384</v>
       </c>
       <c r="B385" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C385" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D385" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E385">
         <v>0</v>
@@ -7017,13 +7017,13 @@
         <v>385</v>
       </c>
       <c r="B386" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C386" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D386" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E386">
         <v>0</v>
@@ -7037,10 +7037,10 @@
         <v>6</v>
       </c>
       <c r="C387" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D387" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E387">
         <v>0</v>
@@ -7054,10 +7054,10 @@
         <v>12</v>
       </c>
       <c r="C388" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D388" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E388">
         <v>0</v>
@@ -7068,13 +7068,13 @@
         <v>388</v>
       </c>
       <c r="B389" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C389" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D389" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E389">
         <v>0</v>
@@ -7088,10 +7088,10 @@
         <v>7</v>
       </c>
       <c r="C390" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D390" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E390">
         <v>0</v>
@@ -7102,13 +7102,13 @@
         <v>390</v>
       </c>
       <c r="B391" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C391" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D391" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E391">
         <v>0</v>
@@ -7119,13 +7119,13 @@
         <v>391</v>
       </c>
       <c r="B392" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C392" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D392" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E392">
         <v>0</v>
@@ -7142,7 +7142,7 @@
         <v>21</v>
       </c>
       <c r="D393" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E393">
         <v>0</v>
@@ -7153,13 +7153,13 @@
         <v>393</v>
       </c>
       <c r="B394" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C394" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D394" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E394">
         <v>0</v>
@@ -7170,13 +7170,13 @@
         <v>394</v>
       </c>
       <c r="B395" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C395" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D395" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E395">
         <v>0</v>
@@ -7187,13 +7187,13 @@
         <v>395</v>
       </c>
       <c r="B396" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C396" t="s">
         <v>21</v>
       </c>
       <c r="D396" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E396">
         <v>0</v>
@@ -7204,13 +7204,13 @@
         <v>396</v>
       </c>
       <c r="B397" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C397" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D397" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E397">
         <v>0</v>
@@ -7221,13 +7221,13 @@
         <v>397</v>
       </c>
       <c r="B398" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C398" t="s">
         <v>25</v>
       </c>
       <c r="D398" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E398">
         <v>0</v>
@@ -7238,13 +7238,13 @@
         <v>398</v>
       </c>
       <c r="B399" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C399" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D399" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E399">
         <v>0</v>
@@ -7255,13 +7255,13 @@
         <v>399</v>
       </c>
       <c r="B400" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C400" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D400" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E400">
         <v>0</v>
@@ -7272,13 +7272,13 @@
         <v>400</v>
       </c>
       <c r="B401" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C401" t="s">
         <v>25</v>
       </c>
       <c r="D401" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E401">
         <v>0</v>
@@ -7289,13 +7289,13 @@
         <v>401</v>
       </c>
       <c r="B402" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C402" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D402" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E402">
         <v>0</v>
@@ -7306,13 +7306,13 @@
         <v>402</v>
       </c>
       <c r="B403" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C403" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D403" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E403">
         <v>0</v>
@@ -7323,13 +7323,13 @@
         <v>403</v>
       </c>
       <c r="B404" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C404" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D404" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E404">
         <v>0</v>
@@ -7340,13 +7340,13 @@
         <v>404</v>
       </c>
       <c r="B405" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C405" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D405" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E405">
         <v>0</v>
@@ -7357,13 +7357,13 @@
         <v>405</v>
       </c>
       <c r="B406" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C406" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D406" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E406">
         <v>0</v>
@@ -7374,13 +7374,13 @@
         <v>406</v>
       </c>
       <c r="B407" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C407" t="s">
         <v>25</v>
       </c>
       <c r="D407" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E407">
         <v>0</v>
@@ -7391,13 +7391,13 @@
         <v>407</v>
       </c>
       <c r="B408" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C408" t="s">
         <v>23</v>
       </c>
       <c r="D408" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E408">
         <v>0</v>
@@ -7408,13 +7408,13 @@
         <v>408</v>
       </c>
       <c r="B409" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C409" t="s">
         <v>25</v>
       </c>
       <c r="D409" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E409">
         <v>0</v>
@@ -7425,13 +7425,13 @@
         <v>409</v>
       </c>
       <c r="B410" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C410" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D410" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E410">
         <v>0</v>
@@ -7442,13 +7442,13 @@
         <v>410</v>
       </c>
       <c r="B411" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C411" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D411" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E411">
         <v>0</v>
@@ -7459,13 +7459,13 @@
         <v>411</v>
       </c>
       <c r="B412" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C412" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D412" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E412">
         <v>0</v>
@@ -7476,13 +7476,13 @@
         <v>412</v>
       </c>
       <c r="B413" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C413" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D413" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E413">
         <v>0</v>
@@ -7493,13 +7493,13 @@
         <v>413</v>
       </c>
       <c r="B414" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C414" t="s">
         <v>23</v>
       </c>
       <c r="D414" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E414">
         <v>0</v>
@@ -7510,13 +7510,13 @@
         <v>414</v>
       </c>
       <c r="B415" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C415" t="s">
         <v>23</v>
       </c>
       <c r="D415" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E415">
         <v>0</v>
@@ -7527,13 +7527,13 @@
         <v>415</v>
       </c>
       <c r="B416" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C416" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D416" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E416">
         <v>0</v>
@@ -7544,13 +7544,13 @@
         <v>416</v>
       </c>
       <c r="B417" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C417" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D417" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E417">
         <v>0</v>
